--- a/documents/pinmapping.xlsx
+++ b/documents/pinmapping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="225">
   <si>
     <t>sl no</t>
   </si>
@@ -244,9 +244,6 @@
     <t>P1.06</t>
   </si>
   <si>
-    <t>DISPLAY-CS</t>
-  </si>
-  <si>
     <t>P1.07</t>
   </si>
   <si>
@@ -671,6 +668,33 @@
   </si>
   <si>
     <t>ESP32-RX</t>
+  </si>
+  <si>
+    <t>ADC_OUT1</t>
+  </si>
+  <si>
+    <t>GPIO_INOUT</t>
+  </si>
+  <si>
+    <t>SPARE_1</t>
+  </si>
+  <si>
+    <t>SPARE_2</t>
+  </si>
+  <si>
+    <t>SPARE_3</t>
+  </si>
+  <si>
+    <t>SPARE_4</t>
+  </si>
+  <si>
+    <t>ETH_CS</t>
+  </si>
+  <si>
+    <t>ETH_INT</t>
+  </si>
+  <si>
+    <t>ETH_RESET</t>
   </si>
 </sst>
 </file>
@@ -796,7 +820,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -882,11 +906,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1015,9 +1048,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1025,6 +1055,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1331,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>2</v>
@@ -1340,7 +1376,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1351,14 +1387,16 @@
         <v>4</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D2" s="11"/>
+        <v>164</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>217</v>
+      </c>
       <c r="E2" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1369,10 +1407,17 @@
         <v>5</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+        <v>171</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
@@ -1382,10 +1427,17 @@
         <v>6</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
@@ -1395,7 +1447,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>8</v>
@@ -1404,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1415,16 +1467,16 @@
         <v>10</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1435,16 +1487,16 @@
         <v>12</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D7" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>210</v>
-      </c>
       <c r="F7" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1455,7 +1507,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>14</v>
@@ -1464,7 +1516,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1475,7 +1527,7 @@
         <v>16</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>17</v>
@@ -1484,7 +1536,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1495,7 +1547,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>20</v>
@@ -1504,7 +1556,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -1515,16 +1567,16 @@
         <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1535,16 +1587,16 @@
         <v>23</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1555,7 +1607,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>25</v>
@@ -1564,7 +1616,7 @@
         <v>26</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1575,7 +1627,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>25</v>
@@ -1584,7 +1636,7 @@
         <v>28</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1595,7 +1647,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D15" s="19" t="s">
         <v>30</v>
@@ -1604,7 +1656,7 @@
         <v>31</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1615,7 +1667,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D16" s="19" t="s">
         <v>30</v>
@@ -1624,7 +1676,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1635,7 +1687,7 @@
         <v>34</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D17" s="19" t="s">
         <v>30</v>
@@ -1644,7 +1696,7 @@
         <v>35</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1655,7 +1707,7 @@
         <v>36</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" s="19" t="s">
         <v>30</v>
@@ -1664,7 +1716,7 @@
         <v>37</v>
       </c>
       <c r="F18" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1675,16 +1727,16 @@
         <v>38</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>39</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1695,10 +1747,17 @@
         <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
+        <v>170</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
@@ -1708,16 +1767,16 @@
         <v>41</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1728,16 +1787,16 @@
         <v>42</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>43</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -1748,16 +1807,16 @@
         <v>44</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1768,16 +1827,16 @@
         <v>46</v>
       </c>
       <c r="C24" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D24" s="21" t="s">
         <v>47</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -1788,16 +1847,16 @@
         <v>48</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>49</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1808,7 +1867,7 @@
         <v>50</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D26" s="17" t="s">
         <v>25</v>
@@ -1817,7 +1876,7 @@
         <v>51</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1828,7 +1887,7 @@
         <v>52</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D27" s="17" t="s">
         <v>25</v>
@@ -1837,7 +1896,7 @@
         <v>53</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1848,7 +1907,7 @@
         <v>54</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>55</v>
@@ -1857,7 +1916,7 @@
         <v>55</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1868,7 +1927,7 @@
         <v>56</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>57</v>
@@ -1877,7 +1936,7 @@
         <v>57</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1888,7 +1947,7 @@
         <v>58</v>
       </c>
       <c r="C30" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D30" s="25" t="s">
         <v>59</v>
@@ -1897,7 +1956,7 @@
         <v>60</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1908,10 +1967,17 @@
         <v>61</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
+        <v>188</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" s="40" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="26">
@@ -1921,16 +1987,16 @@
         <v>62</v>
       </c>
       <c r="C32" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D32" s="27" t="s">
         <v>63</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1941,16 +2007,16 @@
         <v>64</v>
       </c>
       <c r="C33" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D33" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1961,10 +2027,17 @@
         <v>65</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F34" s="48" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="28">
@@ -1974,13 +2047,16 @@
         <v>66</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D35" s="29" t="s">
         <v>67</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
+      </c>
+      <c r="F35" s="48" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1991,13 +2067,16 @@
         <v>68</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D36" s="29" t="s">
         <v>69</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2008,16 +2087,16 @@
         <v>70</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>25</v>
       </c>
       <c r="E37" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="47" t="s">
-        <v>214</v>
+        <v>92</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2028,16 +2107,16 @@
         <v>71</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>25</v>
       </c>
       <c r="E38" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" s="47" t="s">
-        <v>214</v>
+        <v>94</v>
+      </c>
+      <c r="F38" s="46" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2048,16 +2127,16 @@
         <v>72</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>25</v>
       </c>
       <c r="E39" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="F39" s="47" t="s">
-        <v>214</v>
+        <v>96</v>
+      </c>
+      <c r="F39" s="46" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2068,16 +2147,16 @@
         <v>73</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="D40" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="E40" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="44" t="s">
-        <v>214</v>
+        <v>196</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F40" s="47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2085,32 +2164,39 @@
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
+        <v>197</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>41</v>
       </c>
       <c r="B42" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="27" t="s">
-        <v>199</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>77</v>
-      </c>
       <c r="E42" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2118,32 +2204,39 @@
         <v>42</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="34">
         <v>43</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>25</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2151,19 +2244,19 @@
         <v>44</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>30</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2171,19 +2264,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D46" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F46" s="46" t="s">
-        <v>214</v>
+        <v>83</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2191,19 +2284,19 @@
         <v>46</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D47" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F47" s="46" t="s">
-        <v>214</v>
+        <v>85</v>
+      </c>
+      <c r="F47" s="45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2211,19 +2304,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D48" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48" s="46" t="s">
-        <v>214</v>
+        <v>87</v>
+      </c>
+      <c r="F48" s="45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2231,19 +2324,19 @@
         <v>48</v>
       </c>
       <c r="B49" s="39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="D49" s="39" t="s">
+      <c r="E49" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E49" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="45" t="s">
-        <v>214</v>
+      <c r="F49" s="44" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2251,10 +2344,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="8"/>
@@ -2264,10 +2357,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="8"/>
@@ -2277,10 +2370,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="9"/>
       <c r="E52" s="8"/>
@@ -2290,10 +2383,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11"/>
@@ -2303,10 +2396,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11"/>
@@ -2316,10 +2409,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11"/>
@@ -2329,10 +2422,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11"/>
@@ -2342,10 +2435,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11"/>
@@ -2355,10 +2448,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
@@ -2368,10 +2461,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
@@ -2381,10 +2474,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11"/>
@@ -2394,10 +2487,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11"/>
@@ -2407,10 +2500,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
@@ -2420,10 +2513,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
@@ -2433,10 +2526,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11"/>
@@ -2446,10 +2539,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11"/>
@@ -2477,16 +2570,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2494,13 +2587,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2508,13 +2601,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2522,13 +2615,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2536,13 +2629,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2550,13 +2643,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>127</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2564,13 +2657,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2578,13 +2671,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2592,13 +2685,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2609,10 +2702,10 @@
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2620,13 +2713,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2634,13 +2727,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2648,13 +2741,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2662,13 +2755,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>142</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2676,13 +2769,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>144</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2690,13 +2783,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>146</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2704,13 +2797,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
